--- a/LAB_Nokia_SROS/Segment_Routing_LAB/router_info.xlsx
+++ b/LAB_Nokia_SROS/Segment_Routing_LAB/router_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01--Work Data\Training\Cisco DevNet Associate_VNPro\DevNet_Associate_LAB\LAB_Nokia_SROS\Segment_Routing_LAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71176CB5-C0B8-40FA-8AB7-DFF6591D3462}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE470921-1C72-4B6A-A298-699E7505EA42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>hostname</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>sys_ip</t>
+  </si>
+  <si>
+    <t>Node_ID</t>
+  </si>
+  <si>
+    <t>VPRN_3</t>
+  </si>
+  <si>
+    <t>AS_number</t>
+  </si>
+  <si>
+    <t>FlexAgo_Node_id</t>
   </si>
 </sst>
 </file>
@@ -510,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,9 +535,13 @@
     <col min="3" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,8 +560,20 @@
       <c r="F1" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -564,8 +592,20 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>101</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>65333</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -585,8 +625,20 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>102</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>65333</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -606,8 +658,20 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>103</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>65333</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -627,8 +691,20 @@
       <c r="F5" t="s">
         <v>16</v>
       </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>104</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>65333</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -648,8 +724,20 @@
       <c r="F6" t="s">
         <v>17</v>
       </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>105</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>65333</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -668,6 +756,18 @@
       </c>
       <c r="F7" t="s">
         <v>18</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>106</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>65333</v>
       </c>
     </row>
   </sheetData>
